--- a/SouthDakota/WaterAllocation/SDwr_Allocation Schema Mapping to WaDE.xlsx
+++ b/SouthDakota/WaterAllocation/SDwr_Allocation Schema Mapping to WaDE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\SouthDakota\WaterAllocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC185173-2DB5-43FF-A59A-83C820E7F0E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57445E15-0B69-4F85-96DC-76BFEF1FCF7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="714" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="714" activeTab="3" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="10" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="312">
   <si>
     <t>Name</t>
   </si>
@@ -278,9 +278,6 @@
     <t>OrganizationContactEmail</t>
   </si>
   <si>
-    <t>OrganizationDataMappingURL</t>
-  </si>
-  <si>
     <t>State</t>
   </si>
   <si>
@@ -932,10 +929,6 @@
     <t>https://danr.sd.gov/OfficeOfWater/WaterRights/docs/WRAPPLPrimer.pdf</t>
   </si>
   <si>
-    <t>WATER RIGHTS METHOD: South Dakaotra water rights are described in the provdied method link
-DISCLAIMER: The above map dataset is incomplete. There are water permits/rights not included because coordinates for the location have not been established due to the lack of a proper legal description. This is often true of very old filings which did not reference a specific section, township and range. Each water permit/right shown on the map is represented by a single diversion point (pumping location) even though the permit/right may have multiple diversion points. Most of the points shown on the map are calculated values and do NOT represent a precise location of the diversion point. Any reliance on the map results is solely at the user's discretion.</t>
-  </si>
-  <si>
     <t>South Dakakota Water Rights Method</t>
   </si>
   <si>
@@ -979,6 +972,9 @@
   </si>
   <si>
     <t>For SD, we don't want water rights that are considered: Cancelled, Denied, Withdrawn</t>
+  </si>
+  <si>
+    <t>The map dataset is incomplete. There are water permits/rights not included because coordinates for the location have not been established due to the lack of a proper legal description. This is often true of very old filings which did not reference a specific section, township and range. Each water permit/right shown on the map is represented by a single diversion point (pumping location) even though the permit/right may have multiple diversion points. Most of the points shown on the map are calculated values and do NOT represent a precise location of the diversion point. Any reliance on the map results is solely at the user's discretion.</t>
   </si>
 </sst>
 </file>
@@ -1760,7 +1756,7 @@
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2058,21 +2054,6 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2447,7 +2428,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7154D4B-C952-456C-B506-1C3DB2041E3D}">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
@@ -2459,67 +2440,67 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="42" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B1" s="93" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="42" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B2" s="93" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="42" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B4" s="94" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="42" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B8" s="93" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B9" s="93" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B10" s="93" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="42" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B17" s="89" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B18" s="93" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B19" s="93" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B20" s="93" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -2532,8 +2513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2606DDD-D901-4365-BB8D-3E6142C84460}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2572,13 +2553,13 @@
         <v>37</v>
       </c>
       <c r="E2" s="51" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F2" s="52" t="s">
+        <v>155</v>
+      </c>
+      <c r="G2" s="53" t="s">
         <v>156</v>
-      </c>
-      <c r="G2" s="53" t="s">
-        <v>157</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -2619,7 +2600,7 @@
         <v>11</v>
       </c>
       <c r="J3" s="74" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2636,7 +2617,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="88" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F4" s="59" t="s">
         <v>38</v>
@@ -2648,10 +2629,10 @@
         <v>38</v>
       </c>
       <c r="I4" s="73" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J4" s="74" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
@@ -2668,7 +2649,7 @@
         <v>20</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F5" s="43" t="s">
         <v>38</v>
@@ -2680,10 +2661,10 @@
         <v>38</v>
       </c>
       <c r="I5" s="73" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J5" s="74" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -2700,7 +2681,7 @@
         <v>38</v>
       </c>
       <c r="E6" s="43" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F6" s="43" t="s">
         <v>38</v>
@@ -2715,7 +2696,7 @@
         <v>0.5</v>
       </c>
       <c r="J6" s="74" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -2732,7 +2713,7 @@
         <v>38</v>
       </c>
       <c r="E7" s="43" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F7" s="43" t="s">
         <v>38</v>
@@ -2747,7 +2728,7 @@
         <v>38</v>
       </c>
       <c r="J7" s="74" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
@@ -2764,7 +2745,7 @@
         <v>20</v>
       </c>
       <c r="E8" s="43" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F8" s="43" t="s">
         <v>38</v>
@@ -2776,136 +2757,165 @@
         <v>38</v>
       </c>
       <c r="I8" s="76" t="s">
+        <v>209</v>
+      </c>
+      <c r="J8" s="74" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="168" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="102" t="s">
+        <v>311</v>
+      </c>
+      <c r="F9" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="41"/>
+      <c r="J9" s="101" t="s">
         <v>210</v>
       </c>
-      <c r="J8" s="74" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="168" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="102" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="103" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="104" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="105" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="107" t="s">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="41" t="s">
+        <v>296</v>
+      </c>
+      <c r="F10" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="91" t="s">
+        <v>141</v>
+      </c>
+      <c r="J10" s="101" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A11" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="103" t="s">
+        <v>295</v>
+      </c>
+      <c r="F11" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="91" t="s">
+        <v>106</v>
+      </c>
+      <c r="J11" s="101" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A12" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="41" t="s">
         <v>297</v>
       </c>
-      <c r="F9" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="72" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9" s="77"/>
-      <c r="J9" s="74" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="102" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="103" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="104" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="105" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="41" t="s">
-        <v>298</v>
-      </c>
-      <c r="F10" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" s="72" t="s">
-        <v>38</v>
-      </c>
-      <c r="I10" s="73" t="s">
-        <v>142</v>
-      </c>
-      <c r="J10" s="74" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A11" s="102" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="103" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="103" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="105" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="108" t="s">
-        <v>296</v>
-      </c>
-      <c r="F11" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="72" t="s">
-        <v>38</v>
-      </c>
-      <c r="I11" s="73" t="s">
-        <v>107</v>
-      </c>
-      <c r="J11" s="74" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A12" s="102" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="103" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="104" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="106" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="41" t="s">
-        <v>299</v>
-      </c>
       <c r="F12" s="43" t="s">
         <v>38</v>
       </c>
       <c r="G12" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="H12" s="72" t="s">
-        <v>38</v>
-      </c>
-      <c r="I12" s="73" t="s">
-        <v>109</v>
-      </c>
-      <c r="J12" s="74" t="s">
-        <v>214</v>
+      <c r="H12" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="91" t="s">
+        <v>108</v>
+      </c>
+      <c r="J12" s="101" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.3">
+      <c r="B13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="97" t="s">
+        <v>256</v>
+      </c>
+      <c r="F13" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="72" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="77" t="s">
+        <v>126</v>
+      </c>
+      <c r="J13" s="74" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -2920,9 +2930,10 @@
   </sortState>
   <hyperlinks>
     <hyperlink ref="E11" r:id="rId1" xr:uid="{3728B7DB-850B-4B59-8E41-88BF9EFC93E2}"/>
+    <hyperlink ref="E13" r:id="rId2" xr:uid="{725D91F5-45E6-459B-AD64-FC2429890EFD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -2970,13 +2981,13 @@
         <v>37</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>156</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>157</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -3011,7 +3022,7 @@
         <v>16</v>
       </c>
       <c r="J3" s="74" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3028,7 +3039,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="90" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F4" s="30" t="s">
         <v>38</v>
@@ -3040,10 +3051,10 @@
         <v>38</v>
       </c>
       <c r="I4" s="73" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J4" s="74" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -3071,7 +3082,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="74" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -3088,7 +3099,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="91" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F6" s="43" t="s">
         <v>38</v>
@@ -3100,10 +3111,10 @@
         <v>38</v>
       </c>
       <c r="I6" s="73" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J6" s="74" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -3120,7 +3131,7 @@
         <v>20</v>
       </c>
       <c r="E7" s="91" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F7" s="43" t="s">
         <v>38</v>
@@ -3132,10 +3143,10 @@
         <v>38</v>
       </c>
       <c r="I7" s="73" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J7" s="74" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -3152,7 +3163,7 @@
         <v>20</v>
       </c>
       <c r="E8" s="91" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F8" s="43" t="s">
         <v>38</v>
@@ -3164,10 +3175,10 @@
         <v>38</v>
       </c>
       <c r="I8" s="73" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J8" s="74" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -3184,7 +3195,7 @@
         <v>20</v>
       </c>
       <c r="E9" s="91" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F9" s="43" t="s">
         <v>38</v>
@@ -3196,10 +3207,10 @@
         <v>38</v>
       </c>
       <c r="I9" s="73" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J9" s="74" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -3231,7 +3242,7 @@
         <v>10</v>
       </c>
       <c r="J10" s="74" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -3248,7 +3259,7 @@
         <v>20</v>
       </c>
       <c r="E11" s="91" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F11" s="43" t="s">
         <v>38</v>
@@ -3260,10 +3271,10 @@
         <v>38</v>
       </c>
       <c r="I11" s="73" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J11" s="74" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -3280,7 +3291,7 @@
         <v>20</v>
       </c>
       <c r="E12" s="91" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F12" s="43" t="s">
         <v>38</v>
@@ -3292,10 +3303,10 @@
         <v>38</v>
       </c>
       <c r="I12" s="73" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J12" s="74" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="51" x14ac:dyDescent="0.3">
@@ -3312,7 +3323,7 @@
         <v>20</v>
       </c>
       <c r="E13" s="91" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F13" s="43" t="s">
         <v>38</v>
@@ -3324,10 +3335,10 @@
         <v>38</v>
       </c>
       <c r="I13" s="73" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J13" s="74" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -3341,10 +3352,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E8BA2FE-2555-4166-A4DF-0203EE1C77D7}">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3383,13 +3394,13 @@
         <v>37</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>156</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>157</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -3430,7 +3441,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="74" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.35">
@@ -3447,7 +3458,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F4" s="30" t="s">
         <v>38</v>
@@ -3459,10 +3470,10 @@
         <v>38</v>
       </c>
       <c r="I4" s="77" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J4" s="74" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -3479,7 +3490,7 @@
         <v>38</v>
       </c>
       <c r="E5" s="97" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F5" s="16" t="s">
         <v>38</v>
@@ -3491,10 +3502,10 @@
         <v>38</v>
       </c>
       <c r="I5" s="77" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J5" s="74" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -3511,7 +3522,7 @@
         <v>38</v>
       </c>
       <c r="E6" s="44" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F6" s="43" t="s">
         <v>38</v>
@@ -3523,15 +3534,15 @@
         <v>38</v>
       </c>
       <c r="I6" s="77" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J6" s="74" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>34</v>
@@ -3542,7 +3553,7 @@
       <c r="D7" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="97" t="s">
+      <c r="E7" s="92" t="s">
         <v>257</v>
       </c>
       <c r="F7" s="43" t="s">
@@ -3555,15 +3566,15 @@
         <v>38</v>
       </c>
       <c r="I7" s="77" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="J7" s="74" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>34</v>
@@ -3574,8 +3585,8 @@
       <c r="D8" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="92" t="s">
-        <v>258</v>
+      <c r="E8" s="44" t="s">
+        <v>254</v>
       </c>
       <c r="F8" s="43" t="s">
         <v>38</v>
@@ -3587,21 +3598,21 @@
         <v>38</v>
       </c>
       <c r="I8" s="77" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="J8" s="74" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="48" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>38</v>
@@ -3619,27 +3630,27 @@
         <v>38</v>
       </c>
       <c r="I9" s="77" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="J9" s="74" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="48" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="24" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="44" t="s">
-        <v>256</v>
+      <c r="E10" s="97" t="s">
+        <v>252</v>
       </c>
       <c r="F10" s="43" t="s">
         <v>38</v>
@@ -3651,18 +3662,18 @@
         <v>38</v>
       </c>
       <c r="I10" s="77" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="J10" s="74" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>38</v>
@@ -3670,7 +3681,7 @@
       <c r="D11" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="97" t="s">
+      <c r="E11" s="15" t="s">
         <v>253</v>
       </c>
       <c r="F11" s="43" t="s">
@@ -3683,43 +3694,14 @@
         <v>38</v>
       </c>
       <c r="I11" s="77" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="J11" s="74" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>254</v>
-      </c>
-      <c r="F12" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" s="72" t="s">
-        <v>38</v>
-      </c>
-      <c r="I12" s="77" t="s">
-        <v>131</v>
-      </c>
-      <c r="J12" s="74" t="s">
-        <v>185</v>
-      </c>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19"/>
@@ -3742,20 +3724,16 @@
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26"/>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A17:A25">
-    <sortCondition ref="A17:A25"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A16:A24">
+    <sortCondition ref="A16:A24"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="E5" r:id="rId1" xr:uid="{72909003-C2B6-4E37-908C-E21791287CDD}"/>
-    <hyperlink ref="E11" r:id="rId2" xr:uid="{73968FEF-48DF-4958-8CA9-1961FA3AE89E}"/>
-    <hyperlink ref="E7" r:id="rId3" xr:uid="{725D91F5-45E6-459B-AD64-FC2429890EFD}"/>
+    <hyperlink ref="E10" r:id="rId2" xr:uid="{73968FEF-48DF-4958-8CA9-1961FA3AE89E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -3803,13 +3781,13 @@
         <v>37</v>
       </c>
       <c r="E2" s="51" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F2" s="52" t="s">
+        <v>155</v>
+      </c>
+      <c r="G2" s="53" t="s">
         <v>156</v>
-      </c>
-      <c r="G2" s="53" t="s">
-        <v>157</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -3842,7 +3820,7 @@
         <v>34658</v>
       </c>
       <c r="J3" s="74" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.35">
@@ -3859,7 +3837,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="64" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F4" s="59" t="s">
         <v>38</v>
@@ -3869,10 +3847,10 @@
       </c>
       <c r="H4" s="72"/>
       <c r="I4" s="73" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J4" s="74" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
@@ -3889,7 +3867,7 @@
         <v>38</v>
       </c>
       <c r="E5" s="43" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F5" s="43" t="s">
         <v>38</v>
@@ -3902,7 +3880,7 @@
         <v>38</v>
       </c>
       <c r="J5" s="74" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
@@ -3919,7 +3897,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="43" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F6" s="43" t="s">
         <v>38</v>
@@ -3932,7 +3910,7 @@
         <v>38</v>
       </c>
       <c r="J6" s="74" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
@@ -3949,7 +3927,7 @@
         <v>20</v>
       </c>
       <c r="E7" s="43" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F7" s="43" t="s">
         <v>38</v>
@@ -3959,10 +3937,10 @@
       </c>
       <c r="H7" s="72"/>
       <c r="I7" s="73" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J7" s="74" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -3982,17 +3960,17 @@
         <v>38</v>
       </c>
       <c r="F8" s="41" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G8" s="46" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H8" s="78"/>
       <c r="I8" s="73" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J8" s="74" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -4009,7 +3987,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F9" s="24" t="s">
         <v>38</v>
@@ -4022,7 +4000,7 @@
         <v>17839</v>
       </c>
       <c r="J9" s="74" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -4039,20 +4017,20 @@
         <v>20</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F10" s="41" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G10" s="32" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H10" s="78"/>
       <c r="I10" s="73" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J10" s="74" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -4116,13 +4094,13 @@
         <v>37</v>
       </c>
       <c r="E2" s="51" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F2" s="52" t="s">
+        <v>155</v>
+      </c>
+      <c r="G2" s="53" t="s">
         <v>156</v>
-      </c>
-      <c r="G2" s="53" t="s">
-        <v>157</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -4161,7 +4139,7 @@
         <v>39035</v>
       </c>
       <c r="J3" s="74" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4176,7 +4154,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="64" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F4" s="59" t="s">
         <v>38</v>
@@ -4186,10 +4164,10 @@
       </c>
       <c r="H4" s="72"/>
       <c r="I4" s="77" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J4" s="74" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -4197,7 +4175,7 @@
         <v>58</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C5" s="37" t="s">
         <v>18</v>
@@ -4206,7 +4184,7 @@
         <v>38</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F5" s="43" t="s">
         <v>38</v>
@@ -4216,10 +4194,10 @@
       </c>
       <c r="H5" s="72"/>
       <c r="I5" s="77" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J5" s="74" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -4236,7 +4214,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F6" s="43" t="s">
         <v>38</v>
@@ -4246,10 +4224,10 @@
       </c>
       <c r="H6" s="72"/>
       <c r="I6" s="77" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J6" s="74" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -4257,7 +4235,7 @@
         <v>66</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C7" s="37" t="s">
         <v>18</v>
@@ -4265,21 +4243,21 @@
       <c r="D7" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="109" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="110" t="s">
-        <v>260</v>
-      </c>
-      <c r="G7" s="111" t="s">
-        <v>272</v>
+      <c r="E7" s="104" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="105" t="s">
+        <v>259</v>
+      </c>
+      <c r="G7" s="106" t="s">
+        <v>271</v>
       </c>
       <c r="H7" s="72"/>
       <c r="I7" s="76" t="s">
         <v>38</v>
       </c>
       <c r="J7" s="79" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -4296,7 +4274,7 @@
         <v>20</v>
       </c>
       <c r="E8" s="41" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F8" s="43" t="s">
         <v>38</v>
@@ -4306,10 +4284,10 @@
       </c>
       <c r="H8" s="78"/>
       <c r="I8" s="77" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J8" s="74" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
@@ -4326,7 +4304,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F9" s="43" t="s">
         <v>38</v>
@@ -4337,7 +4315,7 @@
       <c r="H9" s="72"/>
       <c r="I9" s="77"/>
       <c r="J9" s="74" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="51" x14ac:dyDescent="0.3">
@@ -4354,7 +4332,7 @@
         <v>20</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F10" s="43" t="s">
         <v>38</v>
@@ -4367,7 +4345,7 @@
         <v>38</v>
       </c>
       <c r="J10" s="74" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -4375,7 +4353,7 @@
         <v>64</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C11" s="37" t="s">
         <v>18</v>
@@ -4384,7 +4362,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F11" s="43" t="s">
         <v>38</v>
@@ -4397,7 +4375,7 @@
         <v>38</v>
       </c>
       <c r="J11" s="79" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -4405,7 +4383,7 @@
         <v>65</v>
       </c>
       <c r="B12" s="36" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C12" s="37" t="s">
         <v>18</v>
@@ -4417,17 +4395,17 @@
         <v>38</v>
       </c>
       <c r="F12" s="41" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G12" s="45" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H12" s="72"/>
       <c r="I12" s="76" t="s">
         <v>38</v>
       </c>
       <c r="J12" s="79" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -4447,17 +4425,17 @@
         <v>38</v>
       </c>
       <c r="F13" s="41" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G13" s="45" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H13" s="80"/>
       <c r="I13" s="77" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J13" s="74" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -4477,17 +4455,17 @@
         <v>38</v>
       </c>
       <c r="F14" s="41" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G14" s="45" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H14" s="80"/>
       <c r="I14" s="77">
         <v>-1067.700435</v>
       </c>
       <c r="J14" s="74" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -4504,7 +4482,7 @@
         <v>38</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F15" s="43" t="s">
         <v>38</v>
@@ -4517,7 +4495,7 @@
         <v>38</v>
       </c>
       <c r="J15" s="74" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -4534,7 +4512,7 @@
         <v>20</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F16" s="43" t="s">
         <v>38</v>
@@ -4547,12 +4525,12 @@
         <v>38</v>
       </c>
       <c r="J16" s="74" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>16</v>
@@ -4564,7 +4542,7 @@
         <v>38</v>
       </c>
       <c r="E17" s="41" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F17" s="24" t="s">
         <v>38</v>
@@ -4574,7 +4552,7 @@
       </c>
       <c r="H17" s="81"/>
       <c r="I17" s="82" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J17" s="81"/>
     </row>
@@ -4590,7 +4568,7 @@
         <v>38</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F18" s="24" t="s">
         <v>38</v>
@@ -4600,10 +4578,10 @@
       </c>
       <c r="H18" s="72"/>
       <c r="I18" s="77" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J18" s="74" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -4620,7 +4598,7 @@
         <v>38</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F19" s="43" t="s">
         <v>38</v>
@@ -4633,7 +4611,7 @@
         <v>3703994</v>
       </c>
       <c r="J19" s="74" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="24" x14ac:dyDescent="0.3">
@@ -4650,7 +4628,7 @@
         <v>38</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F20" s="43" t="s">
         <v>38</v>
@@ -4660,10 +4638,10 @@
       </c>
       <c r="H20" s="72"/>
       <c r="I20" s="77" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J20" s="79" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -4680,7 +4658,7 @@
         <v>20</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F21" s="24" t="s">
         <v>38</v>
@@ -4690,10 +4668,10 @@
       </c>
       <c r="H21" s="72"/>
       <c r="I21" s="77" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J21" s="74" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -4710,7 +4688,7 @@
         <v>20</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F22" s="43" t="s">
         <v>38</v>
@@ -4720,10 +4698,10 @@
       </c>
       <c r="H22" s="72"/>
       <c r="I22" s="77" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J22" s="74" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -4740,7 +4718,7 @@
         <v>38</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F23" s="43" t="s">
         <v>38</v>
@@ -4753,7 +4731,7 @@
         <v>38</v>
       </c>
       <c r="J23" s="79" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -4809,13 +4787,13 @@
         <v>37</v>
       </c>
       <c r="E2" s="51" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F2" s="52" t="s">
+        <v>155</v>
+      </c>
+      <c r="G2" s="53" t="s">
         <v>156</v>
-      </c>
-      <c r="G2" s="53" t="s">
-        <v>157</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -4829,7 +4807,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B3" s="36" t="s">
         <v>33</v>
@@ -4850,7 +4828,7 @@
         <v>50004</v>
       </c>
       <c r="J3" s="74" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -4882,7 +4860,7 @@
         <v>43</v>
       </c>
       <c r="J4" s="74" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -4914,7 +4892,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="74" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -4946,7 +4924,7 @@
         <v>39035</v>
       </c>
       <c r="J6" s="74" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -4978,7 +4956,7 @@
         <v>63</v>
       </c>
       <c r="J7" s="74" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -5010,12 +4988,12 @@
         <v>371091</v>
       </c>
       <c r="J8" s="74" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="35" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B9" s="36" t="s">
         <v>34</v>
@@ -5027,7 +5005,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="41" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F9" s="24"/>
       <c r="G9" s="32"/>
@@ -5049,7 +5027,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="96" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F10" s="24" t="s">
         <v>38</v>
@@ -5064,7 +5042,7 @@
         <v>38</v>
       </c>
       <c r="J10" s="74" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -5081,7 +5059,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="95" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F11" s="24" t="s">
         <v>38</v>
@@ -5096,7 +5074,7 @@
         <v>38</v>
       </c>
       <c r="J11" s="74" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -5113,7 +5091,7 @@
         <v>38</v>
       </c>
       <c r="E12" s="41" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F12" s="24" t="s">
         <v>38</v>
@@ -5128,7 +5106,7 @@
         <v>38</v>
       </c>
       <c r="J12" s="74" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -5145,7 +5123,7 @@
         <v>38</v>
       </c>
       <c r="E13" s="66" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F13" s="24" t="s">
         <v>38</v>
@@ -5160,7 +5138,7 @@
         <v>38</v>
       </c>
       <c r="J13" s="74" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5177,7 +5155,7 @@
         <v>38</v>
       </c>
       <c r="E14" s="67" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F14" s="59" t="s">
         <v>38</v>
@@ -5192,12 +5170,12 @@
         <v>38</v>
       </c>
       <c r="J14" s="74" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="35" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B15" s="36" t="s">
         <v>33</v>
@@ -5209,7 +5187,7 @@
         <v>20</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F15" s="24" t="s">
         <v>38</v>
@@ -5224,12 +5202,12 @@
         <v>5363</v>
       </c>
       <c r="J15" s="74" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B16" s="36" t="s">
         <v>68</v>
@@ -5241,7 +5219,7 @@
         <v>38</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F16" s="24" t="s">
         <v>38</v>
@@ -5253,15 +5231,15 @@
         <v>38</v>
       </c>
       <c r="I16" s="77" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J16" s="79" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B17" s="36" t="s">
         <v>68</v>
@@ -5273,7 +5251,7 @@
         <v>38</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F17" s="24" t="s">
         <v>38</v>
@@ -5285,15 +5263,15 @@
         <v>38</v>
       </c>
       <c r="I17" s="77" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J17" s="79" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A18" s="35" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B18" s="36" t="s">
         <v>34</v>
@@ -5305,7 +5283,7 @@
         <v>20</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F18" s="24" t="s">
         <v>38</v>
@@ -5317,15 +5295,15 @@
         <v>38</v>
       </c>
       <c r="I18" s="77" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J18" s="74" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="35" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B19" s="36" t="s">
         <v>15</v>
@@ -5337,7 +5315,7 @@
         <v>38</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F19" s="24" t="s">
         <v>38</v>
@@ -5349,15 +5327,15 @@
         <v>38</v>
       </c>
       <c r="I19" s="77" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J19" s="79" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B20" s="36" t="s">
         <v>34</v>
@@ -5369,7 +5347,7 @@
         <v>38</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F20" s="24" t="s">
         <v>38</v>
@@ -5381,15 +5359,15 @@
         <v>38</v>
       </c>
       <c r="I20" s="77" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J20" s="74" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="35" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B21" s="36" t="s">
         <v>69</v>
@@ -5401,7 +5379,7 @@
         <v>38</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F21" s="24" t="s">
         <v>38</v>
@@ -5416,12 +5394,12 @@
         <v>38</v>
       </c>
       <c r="J21" s="79" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="35" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B22" s="36" t="s">
         <v>33</v>
@@ -5433,7 +5411,7 @@
         <v>20</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F22" s="24" t="s">
         <v>38</v>
@@ -5448,12 +5426,12 @@
         <v>5200</v>
       </c>
       <c r="J22" s="74" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="70" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B23" s="36" t="s">
         <v>69</v>
@@ -5468,10 +5446,10 @@
         <v>38</v>
       </c>
       <c r="F23" s="41" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G23" s="45" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H23" s="83" t="s">
         <v>38</v>
@@ -5480,12 +5458,12 @@
         <v>1</v>
       </c>
       <c r="J23" s="74" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A24" s="35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B24" s="36" t="s">
         <v>34</v>
@@ -5497,27 +5475,27 @@
         <v>20</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F24" s="41" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G24" s="32" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H24" s="83" t="s">
         <v>38</v>
       </c>
       <c r="I24" s="77" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J24" s="74" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B25" s="36" t="s">
         <v>34</v>
@@ -5532,24 +5510,24 @@
         <v>38</v>
       </c>
       <c r="F25" s="41" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G25" s="46" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H25" s="83" t="s">
         <v>38</v>
       </c>
       <c r="I25" s="77" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J25" s="74" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B26" s="36" t="s">
         <v>68</v>
@@ -5561,27 +5539,27 @@
         <v>38</v>
       </c>
       <c r="E26" s="24" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F26" s="41" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G26" s="46" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H26" s="83" t="s">
         <v>38</v>
       </c>
       <c r="I26" s="77" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J26" s="74" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="35" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B27" s="36" t="s">
         <v>33</v>
@@ -5596,24 +5574,24 @@
         <v>38</v>
       </c>
       <c r="F27" s="41" t="s">
+        <v>259</v>
+      </c>
+      <c r="G27" s="46" t="s">
         <v>260</v>
       </c>
-      <c r="G27" s="46" t="s">
-        <v>261</v>
-      </c>
       <c r="H27" s="83" t="s">
         <v>38</v>
       </c>
       <c r="I27" s="77" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J27" s="74" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A28" s="35" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B28" s="36" t="s">
         <v>15</v>
@@ -5625,7 +5603,7 @@
         <v>20</v>
       </c>
       <c r="E28" s="24" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F28" s="24" t="s">
         <v>38</v>
@@ -5640,15 +5618,15 @@
         <v>38</v>
       </c>
       <c r="J28" s="74" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="35" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B29" s="36" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C29" s="36" t="s">
         <v>18</v>
@@ -5657,7 +5635,7 @@
         <v>38</v>
       </c>
       <c r="E29" s="24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F29" s="24" t="s">
         <v>38</v>
@@ -5672,15 +5650,15 @@
         <v>44196</v>
       </c>
       <c r="J29" s="74" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="35" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B30" s="36" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C30" s="36" t="s">
         <v>18</v>
@@ -5689,7 +5667,7 @@
         <v>38</v>
       </c>
       <c r="E30" s="24" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F30" s="24" t="s">
         <v>38</v>
@@ -5704,12 +5682,12 @@
         <v>43831</v>
       </c>
       <c r="J30" s="74" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="35" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B31" s="36" t="s">
         <v>34</v>
@@ -5721,7 +5699,7 @@
         <v>20</v>
       </c>
       <c r="E31" s="24" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F31" s="43" t="s">
         <v>38</v>
@@ -5733,15 +5711,15 @@
         <v>38</v>
       </c>
       <c r="I31" s="77" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J31" s="74" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="70" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B32" s="36" t="s">
         <v>69</v>
@@ -5759,7 +5737,7 @@
         <v>38</v>
       </c>
       <c r="G32" s="32" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H32" s="83" t="s">
         <v>38</v>
@@ -5768,12 +5746,12 @@
         <v>0</v>
       </c>
       <c r="J32" s="74" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="33" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A33" s="35" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B33" s="36" t="s">
         <v>34</v>
@@ -5785,13 +5763,13 @@
         <v>38</v>
       </c>
       <c r="E33" s="24" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F33" s="41" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G33" s="45" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H33" s="83" t="s">
         <v>38</v>
@@ -5800,12 +5778,12 @@
         <v>38</v>
       </c>
       <c r="J33" s="74" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B34" s="36" t="s">
         <v>34</v>
@@ -5817,7 +5795,7 @@
         <v>38</v>
       </c>
       <c r="E34" s="24" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F34" s="24" t="s">
         <v>38</v>
@@ -5829,15 +5807,15 @@
         <v>38</v>
       </c>
       <c r="I34" s="77" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J34" s="79" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A35" s="35" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B35" s="36" t="s">
         <v>15</v>
@@ -5849,7 +5827,7 @@
         <v>20</v>
       </c>
       <c r="E35" s="24" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F35" s="24" t="s">
         <v>38</v>
@@ -5861,15 +5839,15 @@
         <v>38</v>
       </c>
       <c r="I35" s="77" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J35" s="74" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="36" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A36" s="35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B36" s="36" t="s">
         <v>15</v>
@@ -5881,7 +5859,7 @@
         <v>20</v>
       </c>
       <c r="E36" s="24" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F36" s="24" t="s">
         <v>38</v>
@@ -5893,15 +5871,15 @@
         <v>38</v>
       </c>
       <c r="I36" s="77" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J36" s="74" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="35" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B37" s="36" t="s">
         <v>33</v>
@@ -5913,7 +5891,7 @@
         <v>38</v>
       </c>
       <c r="E37" s="69" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F37" s="24" t="s">
         <v>38</v>
@@ -5928,12 +5906,12 @@
         <v>43874</v>
       </c>
       <c r="J37" s="74" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B38" s="36" t="s">
         <v>15</v>
@@ -5945,7 +5923,7 @@
         <v>38</v>
       </c>
       <c r="E38" s="24" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F38" s="24" t="s">
         <v>38</v>
@@ -5960,15 +5938,15 @@
         <v>33187</v>
       </c>
       <c r="J38" s="79" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="70" t="s">
+        <v>243</v>
+      </c>
+      <c r="B39" s="36" t="s">
         <v>244</v>
-      </c>
-      <c r="B39" s="36" t="s">
-        <v>245</v>
       </c>
       <c r="C39" s="37" t="s">
         <v>18</v>
@@ -5991,7 +5969,7 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="35" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B40" s="36" t="s">
         <v>69</v>
@@ -6003,7 +5981,7 @@
         <v>38</v>
       </c>
       <c r="E40" s="24" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F40" s="24" t="s">
         <v>38</v>
@@ -6018,12 +5996,12 @@
         <v>38</v>
       </c>
       <c r="J40" s="74" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B41" s="36" t="s">
         <v>69</v>
@@ -6035,7 +6013,7 @@
         <v>38</v>
       </c>
       <c r="E41" s="24" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F41" s="24" t="s">
         <v>38</v>
@@ -6048,12 +6026,12 @@
         <v>38</v>
       </c>
       <c r="J41" s="74" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="42" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A42" s="35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B42" s="36" t="s">
         <v>15</v>
@@ -6065,7 +6043,7 @@
         <v>20</v>
       </c>
       <c r="E42" s="24" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F42" s="24" t="s">
         <v>38</v>
@@ -6077,15 +6055,15 @@
         <v>38</v>
       </c>
       <c r="I42" s="77" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J42" s="74" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="43" spans="1:16" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B43" s="36" t="s">
         <v>34</v>
@@ -6097,7 +6075,7 @@
         <v>38</v>
       </c>
       <c r="E43" s="24" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F43" s="24" t="s">
         <v>38</v>
@@ -6112,12 +6090,12 @@
         <v>38</v>
       </c>
       <c r="J43" s="79" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>34</v>
@@ -6135,10 +6113,10 @@
         <v>38</v>
       </c>
       <c r="I44" s="100" t="s">
+        <v>287</v>
+      </c>
+      <c r="J44" s="101" t="s">
         <v>288</v>
-      </c>
-      <c r="J44" s="101" t="s">
-        <v>289</v>
       </c>
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
@@ -6149,7 +6127,7 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="35" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B45" s="36" t="s">
         <v>33</v>
@@ -6161,7 +6139,7 @@
         <v>38</v>
       </c>
       <c r="E45" s="24" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F45" s="24" t="s">
         <v>38</v>
@@ -6176,12 +6154,12 @@
         <v>38</v>
       </c>
       <c r="J45" s="74" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B46" s="36" t="s">
         <v>16</v>
@@ -6193,7 +6171,7 @@
         <v>20</v>
       </c>
       <c r="E46" s="24" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F46" s="24" t="s">
         <v>38</v>
@@ -6205,18 +6183,18 @@
         <v>38</v>
       </c>
       <c r="I46" s="77" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J46" s="79" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" s="35" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B47" s="36" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C47" s="37" t="s">
         <v>18</v>
@@ -6225,7 +6203,7 @@
         <v>20</v>
       </c>
       <c r="E47" s="24" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F47" s="24" t="s">
         <v>38</v>
@@ -6237,15 +6215,15 @@
         <v>38</v>
       </c>
       <c r="I47" s="77" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J47" s="74" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="48" spans="1:16" ht="36" x14ac:dyDescent="0.3">
       <c r="A48" s="35" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B48" s="36" t="s">
         <v>34</v>
@@ -6257,22 +6235,22 @@
         <v>38</v>
       </c>
       <c r="E48" s="24" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F48" s="24" t="s">
         <v>38</v>
       </c>
       <c r="G48" s="32" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H48" s="83" t="s">
         <v>38</v>
       </c>
       <c r="I48" s="77" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J48" s="74" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
